--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Shh-Lrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Shh-Lrp2.xlsx
@@ -522,16 +522,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.02531733333333333</v>
+        <v>0.08785</v>
       </c>
       <c r="H2">
-        <v>0.07595199999999999</v>
+        <v>0.26355</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.01049366666666667</v>
+        <v>0.110028</v>
       </c>
       <c r="N2">
-        <v>0.031481</v>
+        <v>0.330084</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -558,10 +558,10 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.0002656716568888889</v>
+        <v>0.0096659598</v>
       </c>
       <c r="R2">
-        <v>0.002391044912</v>
+        <v>0.0869936382</v>
       </c>
       <c r="S2">
         <v>1</v>
